--- a/biology/Zoologie/Abadèche/Abadèche.xlsx
+++ b/biology/Zoologie/Abadèche/Abadèche.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Abad%C3%A8che</t>
+          <t>Abadèche</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">L'Abadèche  est un nom vernaculaire ambigu désignant en français plusieurs poissons de la famille des Ophidiidae. Certaines espèces, en particulier l'Abadèche rose, sont des poissons comestibles appréciés.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Abad%C3%A8che</t>
+          <t>Abadèche</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,9 +523,11 @@
           <t>Espèces nommées « abadèche »</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Il existe plusieurs espèces nommées « abadèche »[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il existe plusieurs espèces nommées « abadèche ».
 Note : pour faciliter les recherches par ordre alphabétique certaines espèces peuvent y figurer plusieurs fois.
 Abadèche du Cap - Genypterus capensis *
 Abadèche barbiche - Ophidion barbatum
@@ -535,7 +549,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Abad%C3%A8che</t>
+          <t>Abadèche</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -553,11 +567,13 @@
           <t>Caractéristiques communes</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les espèces se différencient principalement par leur couleur. Leur corps se rétrécit vers la queue, ressemblant ainsi plus à des poissons que les autres anguilles. Allongé il peut atteindre 1,6 m de long[2].
-Les abadèches sont des poissons des profondeurs, entre 20 et 800 m. Présentes un peu partout dans le monde (dans l'océan Pacifique au Chili, en Nouvelle-Zélande, Afrique du Sud…), on les pêche généralement dans un rayon de 300 à 500 m au large des côtes[2].
-Comme poissons comestibles, les espèces roses et dorées sont plus chères mais l'abadèche noire offre des filets plus larges à la chair légère et reste plus ferme à la cuisson. On peut les préparer de toutes les façons et leurs filets allongés se prêtent bien aux roulades[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les espèces se différencient principalement par leur couleur. Leur corps se rétrécit vers la queue, ressemblant ainsi plus à des poissons que les autres anguilles. Allongé il peut atteindre 1,6 m de long.
+Les abadèches sont des poissons des profondeurs, entre 20 et 800 m. Présentes un peu partout dans le monde (dans l'océan Pacifique au Chili, en Nouvelle-Zélande, Afrique du Sud…), on les pêche généralement dans un rayon de 300 à 500 m au large des côtes.
+Comme poissons comestibles, les espèces roses et dorées sont plus chères mais l'abadèche noire offre des filets plus larges à la chair légère et reste plus ferme à la cuisson. On peut les préparer de toutes les façons et leurs filets allongés se prêtent bien aux roulades.
 </t>
         </is>
       </c>
